--- a/画面設計/【画面設計】06_ユーザ管理.xlsx
+++ b/画面設計/【画面設計】06_ユーザ管理.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="N90qVbyda/kqgBSsdJ0bt+Ag5Z4OYmu8PoApvhIEWrA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="8tqi/rAUzjzRo/kghKRSBbPeNY5V/IIMaiixGB5PId4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>2.【機能概要】</t>
+  </si>
+  <si>
+    <t>サイドメニュー（01_メニュー画面）の「ユーザ管理」から呼ばれる画面。
+事前に新規登録画面（05_新規登録画面）で登録した「ユーザID（メールアドレス）」と「パスワード」を元にログインする機能。
+問題ない場合は、ログイン時に、「ユーザ管理画面」（10_ユーザ管理画面(トップ)）へ遷移すること。
+事前に登録したパスワードを忘れた場合には「パスワードを忘れた方はこちら」リンクをクリックして、ID入力画面（「07_ID入力画面.xlsx」）へ遷移する。</t>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -457,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -2832,7 +2838,9 @@
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="35"/>
+      <c r="B24" s="35" t="s">
+        <v>19</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2883,13 +2891,8 @@
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
+      <c r="B26" s="36"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -2911,13 +2914,13 @@
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -2939,9 +2942,7 @@
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -2969,15 +2970,11 @@
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -3003,9 +3000,15 @@
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
+      <c r="B30" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -3031,9 +3034,9 @@
     </row>
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="41"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="42"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -3059,8 +3062,8 @@
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="42"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="42"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -3087,9 +3090,9 @@
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -3115,11 +3118,9 @@
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -3145,13 +3146,11 @@
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="20"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -3175,10 +3174,14 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
     </row>
-    <row r="36" ht="33.75" customHeight="1">
+    <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
+      <c r="B36" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>26</v>
+      </c>
       <c r="D36" s="20"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -3203,11 +3206,11 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
     </row>
-    <row r="37" ht="62.25" customHeight="1">
+    <row r="37" ht="33.75" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -3231,11 +3234,11 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
     </row>
-    <row r="38" ht="33.75" customHeight="1">
+    <row r="38" ht="62.25" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="48"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="20"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -3261,9 +3264,9 @@
     </row>
     <row r="39" ht="33.75" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="9"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -3289,8 +3292,8 @@
     </row>
     <row r="40" ht="33.75" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="49"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="9"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -3315,11 +3318,11 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
     </row>
-    <row r="41" ht="16.5" customHeight="1">
+    <row r="41" ht="33.75" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -3345,16 +3348,12 @@
     </row>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -3378,7 +3377,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -3409,32 +3408,20 @@
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>31</v>
-      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="38" t="s">
-        <v>32</v>
+      <c r="G44" s="6" t="s">
+        <v>29</v>
       </c>
-      <c r="H44" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I44" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" s="38" t="s">
-        <v>31</v>
-      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -3451,18 +3438,34 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
     </row>
-    <row r="45" ht="109.5" customHeight="1">
+    <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="54"/>
+      <c r="B45" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>32</v>
+      </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
+      <c r="G45" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="38" t="s">
+        <v>32</v>
+      </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
@@ -3479,18 +3482,18 @@
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
     </row>
-    <row r="46" ht="16.5" customHeight="1">
+    <row r="46" ht="109.5" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="54"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -3508,65 +3511,49 @@
       <c r="Z46" s="6"/>
     </row>
     <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="24"/>
-      <c r="B47" s="56" t="s">
-        <v>34</v>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c r="A48" s="24"/>
+      <c r="B48" s="56" t="s">
+        <v>35</v>
       </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="56" t="s">
-        <v>34</v>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="56" t="s">
+        <v>35</v>
       </c>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="57"/>
-      <c r="B48" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="I48" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" s="58" t="s">
-        <v>31</v>
-      </c>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
       <c r="L48" s="24"/>
       <c r="M48" s="24"/>
       <c r="N48" s="24"/>
@@ -3585,16 +3572,32 @@
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="57"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
+      <c r="B49" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="E49" s="24"/>
       <c r="F49" s="57"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="G49" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
       <c r="N49" s="24"/>
@@ -3611,18 +3614,18 @@
       <c r="Y49" s="24"/>
       <c r="Z49" s="24"/>
     </row>
-    <row r="50" ht="27.75" customHeight="1">
+    <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="57"/>
-      <c r="B50" s="62"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="60"/>
       <c r="D50" s="60"/>
       <c r="E50" s="24"/>
       <c r="F50" s="57"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
       <c r="N50" s="24"/>
@@ -3639,18 +3642,18 @@
       <c r="Y50" s="24"/>
       <c r="Z50" s="24"/>
     </row>
-    <row r="51" ht="16.5" customHeight="1">
+    <row r="51" ht="27.75" customHeight="1">
       <c r="A51" s="57"/>
-      <c r="B51" s="59"/>
+      <c r="B51" s="62"/>
       <c r="C51" s="60"/>
       <c r="D51" s="60"/>
       <c r="E51" s="24"/>
       <c r="F51" s="57"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
       <c r="N51" s="24"/>
@@ -3667,18 +3670,18 @@
       <c r="Y51" s="24"/>
       <c r="Z51" s="24"/>
     </row>
-    <row r="52" ht="24.0" customHeight="1">
+    <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="57"/>
-      <c r="B52" s="62"/>
+      <c r="B52" s="59"/>
       <c r="C52" s="60"/>
-      <c r="D52" s="42"/>
+      <c r="D52" s="60"/>
       <c r="E52" s="24"/>
       <c r="F52" s="57"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
       <c r="L52" s="24"/>
       <c r="M52" s="24"/>
       <c r="N52" s="24"/>
@@ -3695,18 +3698,18 @@
       <c r="Y52" s="24"/>
       <c r="Z52" s="24"/>
     </row>
-    <row r="53" ht="36.75" customHeight="1">
-      <c r="A53" s="24"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
+    <row r="53" ht="24.0" customHeight="1">
+      <c r="A53" s="57"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="42"/>
       <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
       <c r="N53" s="24"/>
@@ -3723,34 +3726,18 @@
       <c r="Y53" s="24"/>
       <c r="Z53" s="24"/>
     </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="57"/>
-      <c r="B54" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="58" t="s">
-        <v>31</v>
-      </c>
+    <row r="54" ht="36.75" customHeight="1">
+      <c r="A54" s="24"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
       <c r="E54" s="24"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="I54" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="58" t="s">
-        <v>31</v>
-      </c>
+      <c r="F54" s="24"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
       <c r="L54" s="24"/>
       <c r="M54" s="24"/>
       <c r="N54" s="24"/>
@@ -3767,18 +3754,34 @@
       <c r="Y54" s="24"/>
       <c r="Z54" s="24"/>
     </row>
-    <row r="55" ht="35.25" customHeight="1">
+    <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="57"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="63"/>
+      <c r="B55" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="E55" s="24"/>
       <c r="F55" s="57"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
+      <c r="G55" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="L55" s="24"/>
       <c r="M55" s="24"/>
       <c r="N55" s="24"/>
@@ -3795,18 +3798,18 @@
       <c r="Y55" s="24"/>
       <c r="Z55" s="24"/>
     </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+    <row r="56" ht="35.25" customHeight="1">
+      <c r="A56" s="57"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
       <c r="L56" s="24"/>
       <c r="M56" s="24"/>
       <c r="N56" s="24"/>
@@ -3823,22 +3826,18 @@
       <c r="Y56" s="24"/>
       <c r="Z56" s="24"/>
     </row>
-    <row r="57" ht="21.0" customHeight="1">
+    <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="24"/>
-      <c r="B57" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
-      <c r="G57" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
       <c r="N57" s="24"/>
@@ -3855,34 +3854,22 @@
       <c r="Y57" s="24"/>
       <c r="Z57" s="24"/>
     </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="57"/>
-      <c r="B58" s="58" t="s">
-        <v>29</v>
+    <row r="58" ht="21.0" customHeight="1">
+      <c r="A58" s="24"/>
+      <c r="B58" s="56" t="s">
+        <v>36</v>
       </c>
-      <c r="C58" s="58" t="s">
-        <v>30</v>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="56" t="s">
+        <v>35</v>
       </c>
-      <c r="D58" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="I58" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="K58" s="58" t="s">
-        <v>31</v>
-      </c>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
       <c r="L58" s="24"/>
       <c r="M58" s="24"/>
       <c r="N58" s="24"/>
@@ -3899,18 +3886,34 @@
       <c r="Y58" s="24"/>
       <c r="Z58" s="24"/>
     </row>
-    <row r="59" ht="48.75" customHeight="1">
+    <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="57"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="63"/>
+      <c r="B59" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="E59" s="24"/>
       <c r="F59" s="57"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
+      <c r="G59" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="L59" s="24"/>
       <c r="M59" s="24"/>
       <c r="N59" s="24"/>
@@ -3927,11 +3930,11 @@
       <c r="Y59" s="24"/>
       <c r="Z59" s="24"/>
     </row>
-    <row r="60" ht="18.75" customHeight="1">
+    <row r="60" ht="48.75" customHeight="1">
       <c r="A60" s="57"/>
-      <c r="B60" s="59"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
+      <c r="D60" s="63"/>
       <c r="E60" s="24"/>
       <c r="F60" s="57"/>
       <c r="G60" s="61"/>
@@ -3955,18 +3958,18 @@
       <c r="Y60" s="24"/>
       <c r="Z60" s="24"/>
     </row>
-    <row r="61" ht="26.25" customHeight="1">
+    <row r="61" ht="18.75" customHeight="1">
       <c r="A61" s="57"/>
-      <c r="B61" s="60"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="60"/>
-      <c r="D61" s="63"/>
+      <c r="D61" s="60"/>
       <c r="E61" s="24"/>
       <c r="F61" s="57"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
       <c r="L61" s="24"/>
       <c r="M61" s="24"/>
       <c r="N61" s="24"/>
@@ -3983,18 +3986,18 @@
       <c r="Y61" s="24"/>
       <c r="Z61" s="24"/>
     </row>
-    <row r="62" ht="19.5" customHeight="1">
+    <row r="62" ht="26.25" customHeight="1">
       <c r="A62" s="57"/>
-      <c r="B62" s="59"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
+      <c r="D62" s="63"/>
       <c r="E62" s="24"/>
       <c r="F62" s="57"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="61"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="60"/>
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
       <c r="N62" s="24"/>
@@ -4011,18 +4014,18 @@
       <c r="Y62" s="24"/>
       <c r="Z62" s="24"/>
     </row>
-    <row r="63" ht="32.25" customHeight="1">
+    <row r="63" ht="19.5" customHeight="1">
       <c r="A63" s="57"/>
-      <c r="B63" s="60"/>
+      <c r="B63" s="59"/>
       <c r="C63" s="60"/>
-      <c r="D63" s="63"/>
+      <c r="D63" s="60"/>
       <c r="E63" s="24"/>
       <c r="F63" s="57"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
       <c r="L63" s="24"/>
       <c r="M63" s="24"/>
       <c r="N63" s="24"/>
@@ -4039,18 +4042,18 @@
       <c r="Y63" s="24"/>
       <c r="Z63" s="24"/>
     </row>
-    <row r="64" ht="21.75" customHeight="1">
+    <row r="64" ht="32.25" customHeight="1">
       <c r="A64" s="57"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="65"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="63"/>
       <c r="E64" s="24"/>
       <c r="F64" s="57"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="61"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
       <c r="N64" s="24"/>
@@ -4067,18 +4070,18 @@
       <c r="Y64" s="24"/>
       <c r="Z64" s="24"/>
     </row>
-    <row r="65" ht="35.25" customHeight="1">
+    <row r="65" ht="21.75" customHeight="1">
       <c r="A65" s="57"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="66"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="65"/>
       <c r="E65" s="24"/>
       <c r="F65" s="57"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
       <c r="L65" s="24"/>
       <c r="M65" s="24"/>
       <c r="N65" s="24"/>
@@ -4095,18 +4098,18 @@
       <c r="Y65" s="24"/>
       <c r="Z65" s="24"/>
     </row>
-    <row r="66" ht="21.75" customHeight="1">
+    <row r="66" ht="35.25" customHeight="1">
       <c r="A66" s="57"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="66"/>
       <c r="E66" s="24"/>
       <c r="F66" s="57"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
       <c r="L66" s="24"/>
       <c r="M66" s="24"/>
       <c r="N66" s="24"/>
@@ -4123,18 +4126,18 @@
       <c r="Y66" s="24"/>
       <c r="Z66" s="24"/>
     </row>
-    <row r="67" ht="27.75" customHeight="1">
+    <row r="67" ht="21.75" customHeight="1">
       <c r="A67" s="57"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="63"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
       <c r="E67" s="24"/>
       <c r="F67" s="57"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
       <c r="L67" s="24"/>
       <c r="M67" s="24"/>
       <c r="N67" s="24"/>
@@ -4151,18 +4154,18 @@
       <c r="Y67" s="24"/>
       <c r="Z67" s="24"/>
     </row>
-    <row r="68" ht="21.75" customHeight="1">
+    <row r="68" ht="27.75" customHeight="1">
       <c r="A68" s="57"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="63"/>
       <c r="E68" s="24"/>
       <c r="F68" s="57"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="61"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="60"/>
       <c r="L68" s="24"/>
       <c r="M68" s="24"/>
       <c r="N68" s="24"/>
@@ -4179,18 +4182,18 @@
       <c r="Y68" s="24"/>
       <c r="Z68" s="24"/>
     </row>
-    <row r="69" ht="27.75" customHeight="1">
+    <row r="69" ht="21.75" customHeight="1">
       <c r="A69" s="57"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="69"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="65"/>
       <c r="E69" s="24"/>
       <c r="F69" s="57"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="68"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="61"/>
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
       <c r="N69" s="24"/>
@@ -4207,33 +4210,33 @@
       <c r="Y69" s="24"/>
       <c r="Z69" s="24"/>
     </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
+    <row r="70" ht="27.75" customHeight="1">
+      <c r="A70" s="57"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="68"/>
+      <c r="I70" s="68"/>
+      <c r="J70" s="68"/>
+      <c r="K70" s="68"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="24"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="24"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
     </row>
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="6"/>
@@ -29687,17 +29690,45 @@
       <c r="Y979" s="6"/>
       <c r="Z979" s="6"/>
     </row>
+    <row r="980" ht="16.5" customHeight="1">
+      <c r="A980" s="6"/>
+      <c r="B980" s="6"/>
+      <c r="C980" s="6"/>
+      <c r="D980" s="6"/>
+      <c r="E980" s="6"/>
+      <c r="F980" s="6"/>
+      <c r="G980" s="6"/>
+      <c r="H980" s="6"/>
+      <c r="I980" s="6"/>
+      <c r="J980" s="6"/>
+      <c r="K980" s="6"/>
+      <c r="L980" s="6"/>
+      <c r="M980" s="6"/>
+      <c r="N980" s="6"/>
+      <c r="O980" s="6"/>
+      <c r="P980" s="6"/>
+      <c r="Q980" s="6"/>
+      <c r="R980" s="6"/>
+      <c r="S980" s="6"/>
+      <c r="T980" s="6"/>
+      <c r="U980" s="6"/>
+      <c r="V980" s="6"/>
+      <c r="W980" s="6"/>
+      <c r="X980" s="6"/>
+      <c r="Y980" s="6"/>
+      <c r="Z980" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="B24:H26"/>
-    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B24:H27"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -29813,7 +29844,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="71"/>
       <c r="B4" s="71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="71"/>
@@ -29841,10 +29872,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="71"/>
